--- a/lib/analysis/straddle_analysis.xlsx
+++ b/lib/analysis/straddle_analysis.xlsx
@@ -120,12 +120,156 @@
         </r>
       </text>
     </comment>
+    <comment ref="D91" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Winston Kotzan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+closing price only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J91" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Winston Kotzan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Closing price only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K91" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Winston Kotzan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+There was no high/low on the 20th or 23rd for puts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D92" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Winston Kotzan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+closing price only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J96" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Winston Kotzan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Closing price only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D97" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Winston Kotzan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+closing price only</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
     <t>Jan14 100 Puts</t>
   </si>
@@ -177,12 +321,15 @@
   <si>
     <t>Straddle 7C-6P</t>
   </si>
+  <si>
+    <t>COST - earnings release 12/20/2013 - before the bell</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,6 +373,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -250,7 +404,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -312,8 +466,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -321,8 +487,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -353,6 +520,12 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -383,6 +556,12 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -712,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -984,6 +1163,10 @@
         <f t="shared" si="0"/>
         <v>6.45</v>
       </c>
+      <c r="H16">
+        <f>D16-C16</f>
+        <v>-1.9000000000000004</v>
+      </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
@@ -1008,6 +1191,10 @@
       <c r="F17">
         <f t="shared" si="1"/>
         <v>6.2200000000000006</v>
+      </c>
+      <c r="H17">
+        <f>D17-C17</f>
+        <v>-1.2000000000000011</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1337,6 +1524,10 @@
         <f t="shared" ref="F36" si="6">F24+L29</f>
         <v>4.32</v>
       </c>
+      <c r="H36">
+        <f>D36-C36</f>
+        <v>2.0999999999999996</v>
+      </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
@@ -1362,6 +1553,10 @@
         <f t="shared" ref="F37" si="11">F29+L24</f>
         <v>3.7</v>
       </c>
+      <c r="H37">
+        <f>D37-C37</f>
+        <v>0.35000000000000053</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
@@ -1392,6 +1587,10 @@
         <f t="shared" si="12"/>
         <v>4.05</v>
       </c>
+      <c r="H40">
+        <f>D40-C40</f>
+        <v>3.1799999999999993</v>
+      </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
@@ -1416,6 +1615,10 @@
       <c r="F41">
         <f t="shared" si="13"/>
         <v>3.35</v>
+      </c>
+      <c r="H41">
+        <f>D41-C41</f>
+        <v>0.86999999999999966</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="3" customFormat="1"/>
@@ -1707,6 +1910,10 @@
         <f t="shared" ref="F60" si="15">F48+L53</f>
         <v>0</v>
       </c>
+      <c r="H60">
+        <f>D60-C60</f>
+        <v>0.67999999999999994</v>
+      </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
@@ -1732,6 +1939,10 @@
         <f t="shared" ref="F61" si="17">F53+L48</f>
         <v>0</v>
       </c>
+      <c r="H61">
+        <f>D61-C61</f>
+        <v>-0.39999999999999991</v>
+      </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
@@ -1762,6 +1973,10 @@
         <f t="shared" ref="F64" si="19">F48+L52</f>
         <v>0</v>
       </c>
+      <c r="H64">
+        <f>D64-C64</f>
+        <v>0.14999999999999991</v>
+      </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
@@ -1786,6 +2001,10 @@
       <c r="F65">
         <f t="shared" ref="F65" si="21">F53+L47</f>
         <v>0</v>
+      </c>
+      <c r="H65">
+        <f>D65-C65</f>
+        <v>-0.4099999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:12" s="3" customFormat="1"/>
@@ -1952,7 +2171,7 @@
         <v>7.57</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -1966,12 +2185,12 @@
         <v>7.65</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -1995,8 +2214,12 @@
         <f t="shared" si="24"/>
         <v>0.53</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="H84" s="4">
+        <f>E84-D84</f>
+        <v>0.20000000000000007</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -2020,9 +2243,209 @@
         <f t="shared" si="27"/>
         <v>0.33999999999999997</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="2"/>
+      <c r="H85" s="4">
+        <f>E85-D85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" s="3" customFormat="1"/>
+    <row r="89" spans="1:12">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1">
+        <v>41618</v>
+      </c>
+      <c r="E90" s="1">
+        <v>41619</v>
+      </c>
+      <c r="F90" s="1">
+        <v>41620</v>
+      </c>
+      <c r="G90" t="s">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1">
+        <v>41618</v>
+      </c>
+      <c r="K90" s="1">
+        <v>41619</v>
+      </c>
+      <c r="L90" s="1">
+        <v>41620</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91">
+        <v>118</v>
+      </c>
+      <c r="G91" s="5">
+        <v>118</v>
+      </c>
+      <c r="J91">
+        <v>1.77</v>
+      </c>
+      <c r="K91">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92">
+        <v>120</v>
+      </c>
+      <c r="D92">
+        <v>2.73</v>
+      </c>
+      <c r="E92">
+        <v>1.6</v>
+      </c>
+      <c r="G92" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1">
+        <v>41618</v>
+      </c>
+      <c r="E95" s="1">
+        <v>41619</v>
+      </c>
+      <c r="F95" s="1">
+        <v>41620</v>
+      </c>
+      <c r="G95" t="s">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1">
+        <v>41618</v>
+      </c>
+      <c r="K95" s="1">
+        <v>41619</v>
+      </c>
+      <c r="L95" s="1">
+        <v>41620</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96">
+        <v>118</v>
+      </c>
+      <c r="G96">
+        <v>118</v>
+      </c>
+      <c r="J96">
+        <v>1.77</v>
+      </c>
+      <c r="K96">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>120</v>
+      </c>
+      <c r="D97">
+        <v>2.73</v>
+      </c>
+      <c r="E97">
+        <v>1.6</v>
+      </c>
+      <c r="G97">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>121.5</v>
+      </c>
+      <c r="E100">
+        <v>120.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>119</v>
+      </c>
+      <c r="E101">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="4">
+        <f>B92+H96</f>
+        <v>0</v>
+      </c>
+      <c r="C104" s="4">
+        <f t="shared" ref="C104" si="28">C92+I96</f>
+        <v>0</v>
+      </c>
+      <c r="D104" s="4">
+        <f t="shared" ref="D104" si="29">D92+J96</f>
+        <v>4.5</v>
+      </c>
+      <c r="E104" s="4">
+        <f t="shared" ref="E104" si="30">E92+K96</f>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="F104" s="4">
+        <f t="shared" ref="F104" si="31">F92+L96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <f>B97+H91</f>
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <f t="shared" ref="C105" si="32">C97+I91</f>
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <f t="shared" ref="D105" si="33">D97+J91</f>
+        <v>4.5</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ref="E105" si="34">E97+K91</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F105">
+        <f t="shared" ref="F105" si="35">F97+L91</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
